--- a/PhoenixCI/Excel_Template/30530.xlsx
+++ b/PhoenixCI/Excel_Template/30530.xlsx
@@ -1,39 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FFBBEA1-EB42-447F-A95B-2040BFEA304E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6989973A-C6A7-4206-84D9-DB06BEC9230E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30531" sheetId="18" r:id="rId1"/>
-    <sheet name="30532" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$E$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'30532'!$A$1:$I$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$M$43</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>（ to be continued）</t>
   </si>
@@ -205,20 +195,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">年           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Year</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">外國機構投資人        </t>
     </r>
     <r>
@@ -412,14 +388,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="188" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="190" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="192" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="200" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -433,6 +409,7 @@
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -537,18 +514,6 @@
       <sz val="8.5"/>
       <name val="華康粗圓體"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="華康儷粗黑"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="標楷體"/>
-      <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
@@ -735,9 +700,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -772,29 +737,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="190" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -802,9 +767,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -817,58 +779,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="19" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="192" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -878,40 +831,46 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,24 +882,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_期貨2-第八組" xfId="1"/>
-    <cellStyle name="千分位[0]_期貨2-第八組" xfId="2"/>
+    <cellStyle name="一般_期貨2-第八組" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="千分位[0]_期貨2-第八組" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -959,23 +906,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3073" name="Rectangle 1">
+        <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE3D256-73DE-43EE-A51E-7A8EF61E61F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0311F6-F1DD-4B0F-8E1E-4F3C6571EEEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -985,7 +932,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="714375"/>
+          <a:off x="5257800" y="542925"/>
           <a:ext cx="5143500" cy="4552950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1397,12 +1344,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:E35"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1411,38 +1358,58 @@
     <col min="2" max="3" width="14.125" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="7" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="6" max="6" width="5.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="7" customWidth="1"/>
+    <col min="9" max="10" width="7.125" style="7" customWidth="1"/>
+    <col min="11" max="12" width="7.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A1" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A3" s="57">
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A3" s="51">
         <v>30</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="52">
         <v>1998</v>
       </c>
       <c r="C3" s="8"/>
@@ -1450,22 +1417,52 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="60" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="F3" s="53">
+        <v>30</v>
+      </c>
+      <c r="G3" s="54">
+        <v>1998</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" customHeight="1">
+      <c r="A4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="73"/>
-    </row>
-    <row r="5" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A5" s="71"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="63"/>
+    </row>
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A5" s="67"/>
       <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1478,312 +1475,639 @@
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-    </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-    </row>
-    <row r="9" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-    </row>
-    <row r="10" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-    </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-    </row>
-    <row r="15" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-    </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-    </row>
-    <row r="17" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-    </row>
-    <row r="18" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-    </row>
-    <row r="19" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-    </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-    </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-    </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="61"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="55"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-    </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="61"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-    </row>
-    <row r="25" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="61"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-    </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-    </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="61"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-    </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-    </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-    </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="61"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-    </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-    </row>
-    <row r="32" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="61"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-    </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="61"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-    </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="61"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-    </row>
-    <row r="35" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-    </row>
-    <row r="36" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+    </row>
+    <row r="26" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+    </row>
+    <row r="27" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+    </row>
+    <row r="28" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="55"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="55"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+    </row>
+    <row r="30" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+    </row>
+    <row r="31" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="55"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+    </row>
+    <row r="32" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="55"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+    </row>
+    <row r="33" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="55"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+    </row>
+    <row r="34" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="55"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="55"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="F36" s="15"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
       <c r="D37" s="18"/>
       <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="F37" s="15"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="18"/>
       <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="F38" s="15"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
       <c r="A39" s="20"/>
       <c r="B39" s="21"/>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1">
-      <c r="A40" s="68" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="41"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" customHeight="1">
+      <c r="A40" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-    </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1">
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1">
+      <c r="F41" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A43" s="67">
+      <c r="F42" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A43" s="59">
         <v>51</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-    </row>
-    <row r="44" spans="1:12" ht="12.75" customHeight="1">
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="45" spans="1:12" ht="12.75" customHeight="1">
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="1:12" ht="12.75" customHeight="1">
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-    </row>
-    <row r="47" spans="1:12" ht="19.5" customHeight="1">
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" customHeight="1">
+      <c r="F44" s="59">
+        <v>52</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" customHeight="1">
+      <c r="M45" s="25"/>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" customHeight="1">
+      <c r="M46" s="25"/>
+    </row>
+    <row r="47" spans="1:13" ht="19.5" customHeight="1">
+      <c r="M47" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F47:L47"/>
+  <mergeCells count="12">
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -1792,600 +2116,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="27" man="1"/>
   </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="7" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="7" customWidth="1"/>
-    <col min="8" max="9" width="8.625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.95" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.95" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.95" customHeight="1">
-      <c r="A3" s="59">
-        <v>30</v>
-      </c>
-      <c r="B3" s="60">
-        <v>1998</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1">
-      <c r="A4" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="5" spans="1:9" ht="35.1" customHeight="1">
-      <c r="A5" s="71"/>
-      <c r="B5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-    </row>
-    <row r="12" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-    </row>
-    <row r="13" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-    </row>
-    <row r="15" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-    </row>
-    <row r="16" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-    </row>
-    <row r="18" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-    </row>
-    <row r="19" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="1:9" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-    </row>
-    <row r="23" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="62"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-    </row>
-    <row r="30" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-    </row>
-    <row r="31" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-    </row>
-    <row r="32" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-    </row>
-    <row r="33" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-    </row>
-    <row r="34" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-    </row>
-    <row r="35" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-    </row>
-    <row r="36" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="46"/>
-    </row>
-    <row r="37" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="46"/>
-    </row>
-    <row r="38" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="46"/>
-    </row>
-    <row r="40" spans="1:14" ht="12.95" customHeight="1">
-      <c r="A40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-    </row>
-    <row r="41" spans="1:14" ht="12.95" customHeight="1">
-      <c r="A41" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="1:14" ht="12.95" customHeight="1">
-      <c r="A42" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" spans="1:14" ht="12.95" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A44" s="67">
-        <v>52</v>
-      </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-    </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-    </row>
-    <row r="46" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H46" s="25"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-    </row>
-    <row r="47" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-    </row>
-    <row r="48" spans="1:14" ht="19.5" customHeight="1">
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PhoenixCI/Excel_Template/30530.xlsx
+++ b/PhoenixCI/Excel_Template/30530.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6989973A-C6A7-4206-84D9-DB06BEC9230E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BA33C6-F0BA-47E2-BA42-E2529B642BA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,11 +391,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="179" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -475,39 +475,15 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="華康粗圓體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="華康粗圓體"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="華康儷粗黑"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="標楷體"/>
-      <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
@@ -552,6 +528,18 @@
       <color indexed="9"/>
       <name val="華康中黑體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="華康儷粗黑"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -704,7 +692,6 @@
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -717,7 +704,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -727,43 +714,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -779,110 +731,142 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1348,751 +1332,751 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="14.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="7" customWidth="1"/>
-    <col min="9" max="10" width="7.125" style="7" customWidth="1"/>
-    <col min="11" max="12" width="7.625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="8.875" style="59" customWidth="1"/>
+    <col min="2" max="3" width="14.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="6" customWidth="1"/>
+    <col min="9" max="10" width="7.125" style="6" customWidth="1"/>
+    <col min="11" max="12" width="7.625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="60" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A3" s="51">
+      <c r="A3" s="49">
         <v>30</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="23">
         <v>1998</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="24">
         <v>30</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="25">
         <v>1998</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="61" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="61" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="61" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="61" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="63"/>
+      <c r="M4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="23" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-    </row>
-    <row r="24" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-    </row>
-    <row r="26" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="55"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="55"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-    </row>
-    <row r="34" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-    </row>
-    <row r="35" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="55"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="41"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="43"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="43"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="41"/>
+    <row r="6" spans="1:13" s="34" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+    </row>
+    <row r="10" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="53"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+    </row>
+    <row r="12" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+    </row>
+    <row r="13" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="53"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+    </row>
+    <row r="14" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+    </row>
+    <row r="15" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+    </row>
+    <row r="16" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+    </row>
+    <row r="17" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+    </row>
+    <row r="18" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="53"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+    </row>
+    <row r="19" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" s="34" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="53"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" s="34" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="54"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="54"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="54"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="54"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="54"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="54"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+    </row>
+    <row r="30" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="54"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+    </row>
+    <row r="31" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="54"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+    </row>
+    <row r="32" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="54"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+    </row>
+    <row r="33" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="54"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+    </row>
+    <row r="34" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="54"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+    </row>
+    <row r="35" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="54"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+    </row>
+    <row r="36" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="55"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="65"/>
+    </row>
+    <row r="37" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="55"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="40"/>
+    </row>
+    <row r="38" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="55"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="40"/>
+    </row>
+    <row r="39" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="65"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="44" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="F41" s="47" t="s">
+      <c r="A41" s="57"/>
+      <c r="F41" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="50"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="25" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A43" s="59">
+      <c r="A43" s="27">
         <v>51</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
-      <c r="F44" s="59">
+      <c r="F44" s="27">
         <v>52</v>
       </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
-      <c r="M45" s="25"/>
+      <c r="M45" s="9"/>
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1">
-      <c r="M46" s="25"/>
+      <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1">
-      <c r="M47" s="25"/>
+      <c r="M47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/PhoenixCI/Excel_Template/30530.xlsx
+++ b/PhoenixCI/Excel_Template/30530.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BA33C6-F0BA-47E2-BA42-E2529B642BA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3536AB-F4B5-4605-97D2-1872B47C0805}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -690,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -757,77 +757,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -845,28 +782,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1332,13 +1329,13 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18:M39"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="59" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="38" customWidth="1"/>
     <col min="2" max="3" width="14.125" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="6" customWidth="1"/>
@@ -1352,26 +1349,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4"/>
@@ -1390,7 +1387,7 @@
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A3" s="49">
+      <c r="A3" s="30">
         <v>30</v>
       </c>
       <c r="B3" s="23">
@@ -1417,36 +1414,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="45"/>
+      <c r="F4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="29" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="31"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1484,524 +1481,524 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-    </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-    </row>
-    <row r="10" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="53"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-    </row>
-    <row r="17" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-    </row>
-    <row r="18" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-    </row>
-    <row r="19" spans="1:13" s="35" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-    </row>
-    <row r="20" spans="1:13" s="34" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-    </row>
-    <row r="23" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-    </row>
-    <row r="25" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-    </row>
-    <row r="26" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-    </row>
-    <row r="27" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-    </row>
-    <row r="28" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-    </row>
-    <row r="29" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-    </row>
-    <row r="30" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="54"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-    </row>
-    <row r="31" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-    </row>
-    <row r="32" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="54"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-    </row>
-    <row r="33" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="54"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-    </row>
-    <row r="34" spans="1:13" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="54"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-    </row>
-    <row r="35" spans="1:13" s="36" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="54"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-    </row>
-    <row r="36" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="65"/>
-    </row>
-    <row r="37" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="40"/>
-    </row>
-    <row r="38" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="55"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
-      <c r="M38" s="40"/>
-    </row>
-    <row r="39" spans="1:13" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="65"/>
+    <row r="6" spans="1:13" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="32"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+    </row>
+    <row r="20" spans="1:13" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+    </row>
+    <row r="21" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+    </row>
+    <row r="22" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+    </row>
+    <row r="24" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="33"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="33"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+    </row>
+    <row r="30" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+    </row>
+    <row r="31" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="33"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+    </row>
+    <row r="33" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="33"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+    </row>
+    <row r="35" spans="1:13" s="28" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="33"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+    </row>
+    <row r="36" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="34"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="61"/>
+    </row>
+    <row r="37" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="55"/>
+    </row>
+    <row r="38" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="34"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="55"/>
+    </row>
+    <row r="39" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="61"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="16" t="s">
         <v>1</v>
       </c>
@@ -2014,7 +2011,7 @@
       <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="57"/>
+      <c r="A41" s="36"/>
       <c r="F41" s="19" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2023,7 @@
       <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
-      <c r="A42" s="58"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2042,13 +2039,13 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A43" s="27">
+      <c r="A43" s="40">
         <v>51</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2058,16 +2055,16 @@
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
-      <c r="F44" s="27">
+      <c r="F44" s="40">
         <v>52</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="M45" s="9"/>
@@ -2080,18 +2077,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/PhoenixCI/Excel_Template/30530.xlsx
+++ b/PhoenixCI/Excel_Template/30530.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3536AB-F4B5-4605-97D2-1872B47C0805}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A261C7-F876-49AA-A811-87AD57D6DD8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="30531" sheetId="18" r:id="rId1"/>
+    <sheet name="30532" sheetId="19" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$M$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$E$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'30532'!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>（ to be continued）</t>
   </si>
@@ -195,6 +204,20 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">年           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Year</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">外國機構投資人        </t>
     </r>
     <r>
@@ -388,14 +411,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="188" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="190" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="192" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="200" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -409,7 +432,6 @@
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -475,21 +497,57 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="華康粗圓體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="華康粗圓體"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="華康儷粗黑"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="8.5"/>
       <name val="華康粗圓體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="華康儷粗黑"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
     <font>
@@ -528,18 +586,6 @@
       <color indexed="9"/>
       <name val="華康中黑體"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="華康儷粗黑"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="標楷體"/>
-      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -688,11 +734,12 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +751,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -714,15 +761,53 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="190" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -731,76 +816,117 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="19" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="192" fontId="22" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="22" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="200" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -808,67 +934,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_期貨2-第八組" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="千分位[0]_期貨2-第八組" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般_期貨2-第八組" xfId="1"/>
+    <cellStyle name="千分位[0]_期貨2-第八組" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,23 +958,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="3073" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B0311F6-F1DD-4B0F-8E1E-4F3C6571EEEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F662B90B-A76A-483A-99BC-E6710F5BC099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -913,7 +984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5257800" y="542925"/>
+          <a:off x="0" y="714375"/>
           <a:ext cx="5143500" cy="4552950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1325,764 +1396,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:M39"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="38" customWidth="1"/>
-    <col min="2" max="3" width="14.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="6" customWidth="1"/>
-    <col min="9" max="10" width="7.125" style="6" customWidth="1"/>
-    <col min="11" max="12" width="7.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="8.875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="14.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A1" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A3" s="30">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A3" s="57">
         <v>30</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="58">
         <v>1998</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24">
-        <v>30</v>
-      </c>
-      <c r="G3" s="25">
-        <v>1998</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1">
-      <c r="A4" s="42" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1">
+      <c r="A4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A5" s="71"/>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="1:13" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-    </row>
-    <row r="21" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-    </row>
-    <row r="22" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-    </row>
-    <row r="23" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-    </row>
-    <row r="24" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-    </row>
-    <row r="25" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-    </row>
-    <row r="26" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-    </row>
-    <row r="27" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-    </row>
-    <row r="28" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-    </row>
-    <row r="29" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-    </row>
-    <row r="30" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-    </row>
-    <row r="31" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-    </row>
-    <row r="32" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="33"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-    </row>
-    <row r="33" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="33"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-    </row>
-    <row r="34" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-    </row>
-    <row r="35" spans="1:13" s="28" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-    </row>
-    <row r="36" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="61"/>
-    </row>
-    <row r="37" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="55"/>
-    </row>
-    <row r="38" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="55"/>
-    </row>
-    <row r="39" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="61"/>
-    </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="39" t="s">
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+    </row>
+    <row r="9" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+    </row>
+    <row r="10" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+    </row>
+    <row r="17" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="1:5" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+    </row>
+    <row r="24" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+    </row>
+    <row r="25" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+    </row>
+    <row r="27" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+    </row>
+    <row r="28" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+    </row>
+    <row r="29" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="61"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+    </row>
+    <row r="30" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="61"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+    </row>
+    <row r="31" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+    </row>
+    <row r="32" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="61"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+    </row>
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="61"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+    </row>
+    <row r="34" spans="1:12" s="14" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="61"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+    </row>
+    <row r="35" spans="1:12" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="61"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+    </row>
+    <row r="36" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1">
+      <c r="A40" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-    </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="F41" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1">
-      <c r="A42" s="37"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A43" s="40">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+    </row>
+    <row r="41" spans="1:12" ht="18" customHeight="1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" customHeight="1">
+      <c r="A43" s="67">
         <v>51</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="1:13" ht="12.75" customHeight="1">
-      <c r="F44" s="40">
-        <v>52</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1">
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1">
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1">
-      <c r="M47" s="9"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" customHeight="1">
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" customHeight="1">
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" customHeight="1">
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="1:12" ht="19.5" customHeight="1">
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F44:M44"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+  <mergeCells count="7">
+    <mergeCell ref="F47:L47"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A1:D1"/>
@@ -2097,6 +1791,600 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="27" man="1"/>
   </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N48"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="7" customWidth="1"/>
+    <col min="4" max="5" width="7.125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="8.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.95" customHeight="1">
+      <c r="A1" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.95" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.95" customHeight="1">
+      <c r="A3" s="59">
+        <v>30</v>
+      </c>
+      <c r="B3" s="60">
+        <v>1998</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1">
+      <c r="A4" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="73"/>
+    </row>
+    <row r="5" spans="1:9" ht="35.1" customHeight="1">
+      <c r="A5" s="71"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" s="37" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="62"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="62"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="62"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+    </row>
+    <row r="27" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="62"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="62"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="62"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+    </row>
+    <row r="30" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="62"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+    </row>
+    <row r="31" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="62"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+    </row>
+    <row r="32" spans="1:9" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="62"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="62"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+    </row>
+    <row r="34" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="62"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="1:14" s="41" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="63"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+    </row>
+    <row r="36" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="1:14" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A40" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+    </row>
+    <row r="41" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A41" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+    </row>
+    <row r="42" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:14" ht="12.95" customHeight="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A44" s="67">
+        <v>52</v>
+      </c>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H46" s="25"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:14" ht="19.5" customHeight="1">
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PhoenixCI/Excel_Template/30530.xlsx
+++ b/PhoenixCI/Excel_Template/30530.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3536AB-F4B5-4605-97D2-1872B47C0805}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E51112F-FA52-4772-913D-B5BC0065FD2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="30531" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$M$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$M$44</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
 </workbook>
@@ -393,7 +393,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -782,12 +782,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -796,73 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1330,7 +1330,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:M39"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1349,23 +1349,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" ht="18.95" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -1414,36 +1414,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="44" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="61"/>
+      <c r="L4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="43"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1483,522 +1483,522 @@
     </row>
     <row r="6" spans="1:13" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="31"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="32"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="32"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="32"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="32"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="32"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="51"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="32"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="32"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="32"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="51"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="32"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="32"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
     </row>
     <row r="17" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="32"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
     </row>
     <row r="18" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="32"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" spans="1:13" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="32"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" spans="1:13" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="32"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="1:13" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="33"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="32"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="33"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="33"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
     </row>
     <row r="26" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="33"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="33"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
     </row>
     <row r="28" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="33"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
     </row>
     <row r="29" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="33"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
     </row>
     <row r="30" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="33"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
     </row>
     <row r="31" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="33"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
     </row>
     <row r="32" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="33"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="33"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
     </row>
     <row r="34" spans="1:13" s="28" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="33"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="35" spans="1:13" s="28" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="33"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
     </row>
     <row r="36" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="34"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="61"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="34"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="55"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="34"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="55"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:13" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="35"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="61"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="52"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="16" t="s">
         <v>1</v>
       </c>
@@ -2039,13 +2039,6 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A43" s="40">
-        <v>51</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2055,16 +2048,23 @@
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
-      <c r="F44" s="40">
+      <c r="A44" s="58">
+        <v>51</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58">
         <v>52</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="M45" s="9"/>
@@ -2077,25 +2077,25 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="F44:M44"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="5" max="27" man="1"/>
+    <brk id="5" max="43" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/PhoenixCI/Excel_Template/30530.xlsx
+++ b/PhoenixCI/Excel_Template/30530.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CA74A-99B4-455D-860E-9E59678A73AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30531" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$M$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'30531'!$A$1:$M$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -348,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -517,7 +518,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -650,13 +651,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -736,19 +748,10 @@
     <xf numFmtId="178" fontId="19" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,6 +801,12 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,17 +828,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_期貨2-第八組" xfId="1"/>
-    <cellStyle name="千分位[0]_期貨2-第八組" xfId="2"/>
+    <cellStyle name="一般_期貨2-第八組" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="千分位[0]_期貨2-第八組" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1225,72 +1243,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F1:M1048576"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="4" customWidth="1"/>
-    <col min="6" max="13" width="7.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="14.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="4" customWidth="1"/>
+    <col min="6" max="13" width="7.625" style="4" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.899999999999999" customHeight="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.899999999999999" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="47">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.95" customHeight="1">
+      <c r="A3" s="44">
         <v>30</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="45">
         <v>1998</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="49">
+      <c r="F3" s="46">
         <v>30</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="47">
         <v>1998</v>
       </c>
       <c r="H3" s="24"/>
@@ -1303,36 +1321,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="59" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="59" t="s">
+      <c r="K4" s="60"/>
+      <c r="L4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="60"/>
+      <c r="M4" s="59"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="58"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1372,10 +1390,10 @@
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -1387,10 +1405,10 @@
     </row>
     <row r="7" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -1402,10 +1420,10 @@
     </row>
     <row r="8" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -1417,10 +1435,10 @@
     </row>
     <row r="9" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -1432,10 +1450,10 @@
     </row>
     <row r="10" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -1447,10 +1465,10 @@
     </row>
     <row r="11" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -1462,10 +1480,10 @@
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -1477,10 +1495,10 @@
     </row>
     <row r="13" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1492,10 +1510,10 @@
     </row>
     <row r="14" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1507,10 +1525,10 @@
     </row>
     <row r="15" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1522,10 +1540,10 @@
     </row>
     <row r="16" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1537,10 +1555,10 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -1552,10 +1570,10 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1567,10 +1585,10 @@
     </row>
     <row r="19" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -1582,10 +1600,10 @@
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -1597,10 +1615,10 @@
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -1611,11 +1629,11 @@
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -1627,10 +1645,10 @@
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -1641,11 +1659,11 @@
       <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -1656,11 +1674,11 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -1671,11 +1689,11 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -1686,11 +1704,11 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -1701,11 +1719,11 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -1716,11 +1734,11 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -1731,11 +1749,11 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -1746,11 +1764,11 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -1761,11 +1779,11 @@
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -1776,11 +1794,11 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -1791,11 +1809,11 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -1806,110 +1824,110 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="A35" s="48"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="65"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="37"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="39"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="36"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="39"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.100000000000001" hidden="1" customHeight="1">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="36"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="37"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="64"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="40" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
       <c r="A42" s="3"/>
@@ -1928,13 +1946,6 @@
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A43" s="56">
-        <v>51</v>
-      </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
       <c r="F43" s="22"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
@@ -1944,16 +1955,23 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
-      <c r="F44" s="56">
+      <c r="A44" s="55">
+        <v>51</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55">
         <v>52</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="M45" s="22"/>
@@ -1966,18 +1984,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="F44:M44"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/PhoenixCI/Excel_Template/30530.xlsx
+++ b/PhoenixCI/Excel_Template/30530.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_GitHub\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0CA74A-99B4-455D-860E-9E59678A73AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE75CF-0360-4D9A-BC99-BE9765D03673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -668,7 +668,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,15 +760,6 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -801,6 +792,21 @@
     <xf numFmtId="179" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -828,20 +834,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1248,7 +1242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1262,53 +1256,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="18.95" customHeight="1">
-      <c r="A3" s="44">
+      <c r="A3" s="41">
         <v>30</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="42">
         <v>1998</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="46">
+      <c r="F3" s="43">
         <v>30</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="44">
         <v>1998</v>
       </c>
       <c r="H3" s="24"/>
@@ -1321,36 +1315,36 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="61"/>
+      <c r="F4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="58" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="58" t="s">
+      <c r="I4" s="62"/>
+      <c r="J4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="58" t="s">
+      <c r="K4" s="62"/>
+      <c r="L4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="59"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1390,10 +1384,10 @@
     </row>
     <row r="6" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -1405,10 +1399,10 @@
     </row>
     <row r="7" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -1420,10 +1414,10 @@
     </row>
     <row r="8" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -1435,10 +1429,10 @@
     </row>
     <row r="9" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -1450,10 +1444,10 @@
     </row>
     <row r="10" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -1465,10 +1459,10 @@
     </row>
     <row r="11" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -1480,10 +1474,10 @@
     </row>
     <row r="12" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -1495,10 +1489,10 @@
     </row>
     <row r="13" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1510,10 +1504,10 @@
     </row>
     <row r="14" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1525,10 +1519,10 @@
     </row>
     <row r="15" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1540,10 +1534,10 @@
     </row>
     <row r="16" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1555,10 +1549,10 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -1570,10 +1564,10 @@
     </row>
     <row r="18" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -1585,10 +1579,10 @@
     </row>
     <row r="19" spans="1:13" s="10" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -1600,10 +1594,10 @@
     </row>
     <row r="20" spans="1:13" s="8" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -1615,10 +1609,10 @@
     </row>
     <row r="21" spans="1:13" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -1629,11 +1623,11 @@
       <c r="M21" s="28"/>
     </row>
     <row r="22" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -1645,10 +1639,10 @@
     </row>
     <row r="23" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -1659,11 +1653,11 @@
       <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -1674,11 +1668,11 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
@@ -1689,11 +1683,11 @@
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -1704,11 +1698,11 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -1719,11 +1713,11 @@
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="H28" s="32"/>
@@ -1734,11 +1728,11 @@
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="H29" s="32"/>
@@ -1749,11 +1743,11 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
       <c r="H30" s="32"/>
@@ -1764,11 +1758,11 @@
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -1779,11 +1773,11 @@
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -1794,11 +1788,11 @@
       <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -1809,11 +1803,11 @@
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -1824,11 +1818,11 @@
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" s="11" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -1843,7 +1837,7 @@
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="65"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="12"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
@@ -1890,44 +1884,44 @@
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="64"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="52"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="37" t="s">
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="40"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1">
       <c r="A42" s="3"/>
@@ -1955,23 +1949,23 @@
       <c r="L43" s="23"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="57">
         <v>51</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57">
         <v>52</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1">
       <c r="M45" s="22"/>
@@ -1983,7 +1977,7 @@
       <c r="M47" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A40:E40"/>
@@ -1996,6 +1990,7 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F40:M40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
